--- a/exe1_sum/exe1.xlsx
+++ b/exe1_sum/exe1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotong/Desktop/2023Aut/How2Code/exe1_sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFBD4E0-7F63-E544-BACF-0047B5A4CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A2B21-8200-6845-9252-C075D9153FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="1760" windowWidth="32000" windowHeight="18000" xr2:uid="{124FC21F-FC37-7042-AAB4-D263919D8F7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{124FC21F-FC37-7042-AAB4-D263919D8F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
